--- a/data results file.xlsx
+++ b/data results file.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phuoc\OneDrive\Desktop\School\ML Boot Camp\Projects\Project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AFD8745-CE13-413B-A445-B690E19D5044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2952FF-0640-44D6-BA6E-B3A7DD9ED4CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{173BD131-104E-480E-A78C-2D5D9B7A0049}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{173BD131-104E-480E-A78C-2D5D9B7A0049}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all attribute w smote" sheetId="1" r:id="rId1"/>
+    <sheet name="with 3 attributes" sheetId="3" r:id="rId2"/>
+    <sheet name="3 attr wo smote" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>SVM</t>
   </si>
@@ -92,6 +94,78 @@
   </si>
   <si>
     <t>AgglomerativeClustering</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>[[29  8]
+ [ 6 17]]</t>
+  </si>
+  <si>
+    <t>[[32  5]
+ [ 7 16]]</t>
+  </si>
+  <si>
+    <t>[[30  7]
+ [11 12]]</t>
+  </si>
+  <si>
+    <t>[[29  8]
+ [ 7 16]]</t>
+  </si>
+  <si>
+    <t>[[33  4]
+ [ 8 15]]</t>
+  </si>
+  <si>
+    <t>[[136  67]
+ [ 63  33]]</t>
+  </si>
+  <si>
+    <t>[[107  96]
+ [ 29  67]]</t>
+  </si>
+  <si>
+    <t>[[32  5]
+ [11 12]]</t>
+  </si>
+  <si>
+    <t>[[34  3]
+ [11 12]]</t>
+  </si>
+  <si>
+    <t>[[33  4]
+ [12 11]]</t>
+  </si>
+  <si>
+    <t>[[35  2]
+ [17  6]]</t>
+  </si>
+  <si>
+    <t>[[34  3]
+ [15  8]]</t>
+  </si>
+  <si>
+    <t>[[ 67 136]
+ [ 33  63]]</t>
+  </si>
+  <si>
+    <t>vs reg smote</t>
+  </si>
+  <si>
+    <t>vs 3 attr smote</t>
+  </si>
+  <si>
+    <t>LogisticRegression (opt)</t>
+  </si>
+  <si>
+    <t>[[30  7]
+ [ 6 17]]</t>
+  </si>
+  <si>
+    <t>[[35  2]
+ [13 10]]</t>
   </si>
 </sst>
 </file>
@@ -121,10 +195,45 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -133,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -144,6 +253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,20 +570,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE2C9C9-E59D-4DEA-98C6-E165414FEA06}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -481,8 +594,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -495,8 +611,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>0.23756642074142301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -509,8 +628,11 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1">
+        <v>0.39598482948121999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -523,8 +645,11 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E4" s="1">
+        <v>0.22221702922156999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -537,51 +662,530 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>0.39598482948121999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.51569296209723703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>0.71666666666666601</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>0.685087990120407</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" s="1">
+        <v>0.41713096431045699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.62207357859531698</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.51977770513239596</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E8" s="1">
+        <v>0.41713096431045699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>0.66555183946488194</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>0.44299552906110201</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.41713096431045699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5646A2D8-D8D8-425B-B05E-B0787D4349C3}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.51569296209723703</v>
+      </c>
+      <c r="F2" t="b">
+        <f>E2&gt;'all attribute w smote'!E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.78468899521530999</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.57136238818187102</v>
+      </c>
+      <c r="F3" t="b">
+        <f>E3&gt;'all attribute w smote'!E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.67032967032966995</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.34757851759765301</v>
+      </c>
+      <c r="F4" t="b">
+        <f>E4&gt;'all attribute w smote'!E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73768580588749599</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.475815419418953</v>
+      </c>
+      <c r="F5" t="b">
+        <f>E5&gt;'all attribute w smote'!E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.77266103176916301</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.54578827521585804</v>
+      </c>
+      <c r="F6" t="b">
+        <f>E6&gt;'all attribute w smote'!E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.78021978021978</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.56865319310146101</v>
+      </c>
+      <c r="F7" t="b">
+        <f>E7&gt;'all attribute w smote'!E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.506675804650218</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.56865319310146101</v>
+      </c>
+      <c r="F8" t="b">
+        <f>E8&gt;'all attribute w smote'!E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.58193979933110296</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.57432147697634395</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.56865319310146101</v>
+      </c>
+      <c r="F9" t="b">
+        <f>E9&gt;'all attribute w smote'!E9</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB76AE-9CA8-453C-933F-6807520F0179}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.41713096431045699</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <f>E2&gt;'all attribute w smote'!E2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="b">
+        <f>E2&gt;'with 3 attributes'!E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.73042362002567396</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.49478280832979898</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <f>E3&gt;'all attribute w smote'!E3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="b">
+        <f>E3&gt;'with 3 attributes'!E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.69191270860077003</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.41561755899703101</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <f>E4&gt;'all attribute w smote'!E4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <f>E4&gt;'with 3 attributes'!E4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68333333333333302</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.58680681406306601</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.29580207928201802</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <f>E5&gt;'all attribute w smote'!E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <f>E5&gt;'with 3 attributes'!E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.69747899159663795</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.46277403987896598</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <f>E6&gt;'all attribute w smote'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <f>E6&gt;'with 3 attributes'!E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.63064295485636102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.33517120022123897</v>
+      </c>
+      <c r="F7" s="6" t="b">
+        <f>E7&gt;'all attribute w smote'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <f>E7&gt;'with 3 attributes'!E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.43468143424511901</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.33517120022123897</v>
+      </c>
+      <c r="F8" s="6" t="b">
+        <f>E8&gt;'all attribute w smote'!E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <f>E8&gt;'with 3 attributes'!E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.58193979933110296</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.57432147697634395</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.33517120022123897</v>
+      </c>
+      <c r="F9" s="6" t="b">
+        <f>E9&gt;'all attribute w smote'!E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <f>E9&gt;'with 3 attributes'!E9</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>